--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistemas\Yerbatera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistemas\control-gestion-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12C4F3-3AE9-4600-8914-934586B61BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10263F70-9688-4975-9EFD-51785E0C4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,92 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
-  <si>
-    <t>Vendedores</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Productos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Id_producto</t>
   </si>
   <si>
-    <t>Id_cliente</t>
-  </si>
-  <si>
     <t>Id_proveedor</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Tel</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
-    <t>Transporte</t>
-  </si>
-  <si>
     <t>Id_transporte</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Pedidos</t>
-  </si>
-  <si>
     <t>Un cliente puede hacer un pedido para diferentes locaclidades y diferentes personas que retiran)</t>
   </si>
   <si>
-    <t>Id_pedido</t>
-  </si>
-  <si>
     <t>Si el producto es yerba (categoria) puede ser "con estampilla" o  "sin estampilla"</t>
   </si>
   <si>
-    <t>Estado_pedido</t>
-  </si>
-  <si>
-    <t>Detalle de Pedido</t>
-  </si>
-  <si>
-    <t>id_direcciones</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
-    <t>id_vendedor</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>cuit</t>
   </si>
   <si>
@@ -120,21 +51,9 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>direcciones</t>
-  </si>
-  <si>
-    <t>altura</t>
-  </si>
-  <si>
     <t>id_localidad</t>
   </si>
   <si>
-    <t>piso</t>
-  </si>
-  <si>
-    <t>departamento</t>
-  </si>
-  <si>
     <t>observaciones</t>
   </si>
   <si>
@@ -153,15 +72,9 @@
     <t>cp</t>
   </si>
   <si>
-    <t>pais</t>
-  </si>
-  <si>
     <t>id_pais</t>
   </si>
   <si>
-    <t>Id_ categoria</t>
-  </si>
-  <si>
     <t>subcategoria</t>
   </si>
   <si>
@@ -177,33 +90,6 @@
     <t>id_pedido</t>
   </si>
   <si>
-    <t>precio_costo</t>
-  </si>
-  <si>
-    <t>precio_venta</t>
-  </si>
-  <si>
-    <t>unidad_medida</t>
-  </si>
-  <si>
-    <t>Id_Tipo_Molienda</t>
-  </si>
-  <si>
-    <t>Tipos_Molienda</t>
-  </si>
-  <si>
-    <t>Producto_Tipo_Molienda</t>
-  </si>
-  <si>
-    <t>Producto_Proveedor:</t>
-  </si>
-  <si>
-    <t>Id_Producto</t>
-  </si>
-  <si>
-    <t>Id_Proveedor</t>
-  </si>
-  <si>
     <t>formas_pago</t>
   </si>
   <si>
@@ -228,64 +114,178 @@
     <t>costo_envio</t>
   </si>
   <si>
-    <t>fecha_pedido</t>
-  </si>
-  <si>
     <t>id_cliente</t>
   </si>
   <si>
+    <t>total_pedido</t>
+  </si>
+  <si>
+    <t>id_estado_pedido</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>fecha_modificacion</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>promociones</t>
+  </si>
+  <si>
+    <t>id_promociones</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>activo</t>
+  </si>
+  <si>
+    <t>descuentos</t>
+  </si>
+  <si>
+    <t>id_descuentos</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>promocion_productos</t>
+  </si>
+  <si>
+    <t>id_promocion_productos</t>
+  </si>
+  <si>
+    <t>Id_persona</t>
+  </si>
+  <si>
+    <t>id_rol</t>
+  </si>
+  <si>
+    <t>id_compra</t>
+  </si>
+  <si>
+    <t>id_proveedor</t>
+  </si>
+  <si>
+    <t>Id_venta</t>
+  </si>
+  <si>
+    <t>fecha_compra</t>
+  </si>
+  <si>
+    <t>id_detalle_venta</t>
+  </si>
+  <si>
+    <t>id_unidad_medida</t>
+  </si>
+  <si>
+    <t>unidades_medidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalle_compras </t>
+  </si>
+  <si>
+    <t>id_detalle_compra</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>id_producto_proveedor</t>
+  </si>
+  <si>
+    <t>producto_proveedor:</t>
+  </si>
+  <si>
+    <t>id_empleado</t>
+  </si>
+  <si>
+    <t>domicilio</t>
+  </si>
+  <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>total_pedido</t>
-  </si>
-  <si>
-    <t>id_estado_pedido</t>
-  </si>
-  <si>
-    <t>fecha_creacion</t>
-  </si>
-  <si>
-    <t>fecha_modificacion</t>
-  </si>
-  <si>
-    <t>id_detalle_pedido</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>promociones</t>
-  </si>
-  <si>
-    <t>id_promociones</t>
-  </si>
-  <si>
-    <t>fecha_inicio</t>
-  </si>
-  <si>
-    <t>fecha_fin</t>
-  </si>
-  <si>
-    <t>activo</t>
-  </si>
-  <si>
-    <t>descuentos</t>
-  </si>
-  <si>
-    <t>id_descuentos</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>promocion_productos</t>
-  </si>
-  <si>
-    <t>id_promocion_productos</t>
+    <t>personas</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>paises</t>
+  </si>
+  <si>
+    <t>transporte</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>observacionesd</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>proveedores</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>id_ categoria</t>
+  </si>
+  <si>
+    <t>estado_pedido</t>
+  </si>
+  <si>
+    <t>producto_tipo_molienda</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>id_Tipo_Molienda</t>
+  </si>
+  <si>
+    <t>tipos_molienda</t>
+  </si>
+  <si>
+    <t>id_tipo_molienda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalle_ventas </t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>id_venta</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>id_persona</t>
   </si>
 </sst>
 </file>
@@ -665,16 +665,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L39"/>
+  <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
@@ -684,473 +684,487 @@
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1">
+      <c r="B5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1">
+      <c r="B6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1">
+      <c r="B7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1">
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1">
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1">
       <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1">
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1">
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1">
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1">
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>34</v>
+      <c r="B13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
+      <c r="D14" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1">
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1">
       <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1">
       <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" thickBot="1">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1">
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="J19" s="5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" thickBot="1">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>58</v>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1">
       <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1">
+      <c r="B23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15" thickBot="1">
+      <c r="B24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="H24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" thickBot="1">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1">
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1">
-      <c r="B22" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1">
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1">
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1">
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="H28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15" thickBot="1">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" thickBot="1">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="15" thickBot="1">
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1">
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="D27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="F31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15" thickBot="1">
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="D35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1">
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1">
-      <c r="F30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1">
-      <c r="F31" s="7"/>
-      <c r="J31" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1">
-      <c r="F32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="6:10" ht="15" thickBot="1">
-      <c r="F33" s="7"/>
-      <c r="J33" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10">
-      <c r="F34" s="9"/>
-      <c r="J34" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10">
-      <c r="F35" s="9"/>
-      <c r="J35" s="5" t="s">
+      <c r="H35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" thickBot="1">
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="6:10">
-      <c r="J36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10">
-      <c r="J37" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10">
-      <c r="J38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" ht="15" thickBot="1">
-      <c r="J39" s="4" t="s">
-        <v>73</v>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1">
+      <c r="H37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" thickBot="1">
+      <c r="H38" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistemas\Yerbatera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistemas\control-gestion-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A12C4F3-3AE9-4600-8914-934586B61BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -25,23 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Vendedores</t>
   </si>
   <si>
-    <t>Clientes</t>
-  </si>
-  <si>
     <t>Productos</t>
   </si>
   <si>
     <t>Id_producto</t>
   </si>
   <si>
-    <t>Id_cliente</t>
-  </si>
-  <si>
     <t>Id_proveedor</t>
   </si>
   <si>
@@ -99,21 +92,9 @@
     <t>tel</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
     <t>id_vendedor</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>cuit</t>
-  </si>
-  <si>
     <t>dni</t>
   </si>
   <si>
@@ -234,9 +215,6 @@
     <t>id_cliente</t>
   </si>
   <si>
-    <t>apellido</t>
-  </si>
-  <si>
     <t>total_pedido</t>
   </si>
   <si>
@@ -286,12 +264,36 @@
   </si>
   <si>
     <t>id_promocion_productos</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Id_persona</t>
+  </si>
+  <si>
+    <t>cod-vendedor</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>id_rol</t>
+  </si>
+  <si>
+    <t>id_persona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -664,493 +666,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="82.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1">
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="J8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1">
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1">
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1">
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1">
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1">
+        <v>41</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1">
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1">
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1">
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1">
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1">
-      <c r="B16" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1">
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1">
-      <c r="F18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1">
+      <c r="D26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1">
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1">
-      <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1">
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1">
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1">
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1">
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1">
       <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1">
       <c r="F30" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1">
       <c r="F31" s="7"/>
       <c r="J31" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1">
       <c r="F32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="6:10" ht="15" thickBot="1">
+    <row r="33" spans="6:10" ht="15.75" thickBot="1">
       <c r="F33" s="7"/>
       <c r="J33" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="6:10">
       <c r="F34" s="9"/>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="9"/>
       <c r="J35" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="6:10">
       <c r="J36" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="J37" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="6:10">
       <c r="J38" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" ht="15" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" ht="15.75" thickBot="1">
       <c r="J39" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
